--- a/medicine/Pharmacie/Jacques_Tréfouël/Jacques_Tréfouël.xlsx
+++ b/medicine/Pharmacie/Jacques_Tréfouël/Jacques_Tréfouël.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacques_Tr%C3%A9fou%C3%ABl</t>
+          <t>Jacques_Tréfouël</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacques Tréfouël est un chimiste français, né au Raincy (Seine-et-Oise), le 9 novembre 1897, et mort dans le 15e arrondissement de Paris, le 11 juillet 1977. Il fut directeur de l’Institut Pasteur. Il est surtout connu pour sa contribution à la découverte des propriétés thérapeutiques des sulfamides.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacques_Tr%C3%A9fou%C3%ABl</t>
+          <t>Jacques_Tréfouël</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Les premières années</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Eugène Tréfouël, employé dans le commerce des soieries, est le petit-neveu par sa mère des comédiens Constant et Ernest Coquelin.
-Il fait ses études secondaires au lycée Carnot de Paris, où il a comme camarades Louis Aragon, Pierre Maison et Jacques Coutrot, futur champion d'escrime[1].
+Il fait ses études secondaires au lycée Carnot de Paris, où il a comme camarades Louis Aragon, Pierre Maison et Jacques Coutrot, futur champion d'escrime.
 Il s'inscrit à la faculté des sciences. Il y suit le cours de Maurice Caullery, mais ses études sont interrompues par la guerre, et il est mobilisé en 1915. La paix revenue, il travaille pendant deux ans dans le laboratoire d’Albin Haller à la Sorbonne.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jacques_Tr%C3%A9fou%C3%ABl</t>
+          <t>Jacques_Tréfouël</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +560,56 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le laboratoire de chimie thérapeutique
-En 1920, Tréfouël entre à l’Institut Pasteur. Il est assistant de laboratoire dans le service de chimie thérapeutique dirigé par Ernest Fourneau. L’année suivante, il épouse Thérèse Boyer, avec laquelle il signera de nombreuses publications.
-Outre une étude sur les anesthésiques locaux[2], Jacques Tréfouël poursuit ses travaux, « indissociables de ceux de son maître, Ernest Fourneau[3] », dans deux directions principales : la chimie des antiprotozoaires et celle des antibactériens.
-Dans le premier domaine, il synthétise nombre d’acides dérivés de l’atoxyl, contribuant à démontrer l’étroitesse de la relation qui s’établit entre l’activité spécifique d’un composé d’une part, et la nature de la chaîne substituée et sa position sur le noyau aromatique d’autre part. Ainsi participe-t-il à la découverte de deux médicaments de choix : l’orsanine, active contre la maladie du sommeil, et le stovarsol[4], efficace contre la syphilis, les leishmanioses et l’amibiase. Il participe également à la recherche de médicaments antipaludiques, systématiquement entreprise par Fourneau à partir de 1930. Dans ce but, il synthétise de nombreux dérivés de la série des quinoléines, parmi lesquels la rhodoquine[5] se montre d’une grande efficacité thérapeutique.
-Dans le second domaine, la principale contribution de Jacques Tréfouël aux progrès de la chimie thérapeutique est certainement la découverte, en 1935, en collaboration avec Thérèse Tréfouël, Federico Nitti et Daniel Bovet, des propriétés thérapeutiques des sulfamides[6]. Les époux Tréfouël ayant synthétisé une longue série d’analogues du Prontosil, colorant antistreptococcique mis au point par Gerhard Domagk et commercialisé au début de la même année 1935, Nitti et Bovet montrent que seul le sulfanilamide, part incolore de tous ces composés azoïques, est actif contre les bactéries. Ils ouvrent ainsi la voie de la sulfamidothérapie.
-Encouragés par la remarquable efficacité des sulfamides, Fourneau et Tréfouël s’intéressent alors à l’activité antibactérienne de la sulfone-mère et ils aboutissent, en 1937, à la mise au point de l’acédapsone[7], active contre le streptocoque et contre les bacilles de Koch et de Hansen, ouvrant cette fois la voie à la sulfonethérapie.
-La direction de l'Institut
-En décembre 1940, tout en conservant ses fonctions de chef de service dans le laboratoire de chimie thérapeutique, que Fourneau dirigera jusqu’à la Libération, Jacques Tréfouël est nommé à la direction de l'Institut Pasteur. Il y succède à Gaston Ramon. Le nouveau directeur conserve Noël Bernard et s’adjoint René Dujarric de la Rivière à la sous-direction de l’Institut.
+          <t>Le laboratoire de chimie thérapeutique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1920, Tréfouël entre à l’Institut Pasteur. Il est assistant de laboratoire dans le service de chimie thérapeutique dirigé par Ernest Fourneau. L’année suivante, il épouse Thérèse Boyer, avec laquelle il signera de nombreuses publications.
+Outre une étude sur les anesthésiques locaux, Jacques Tréfouël poursuit ses travaux, « indissociables de ceux de son maître, Ernest Fourneau », dans deux directions principales : la chimie des antiprotozoaires et celle des antibactériens.
+Dans le premier domaine, il synthétise nombre d’acides dérivés de l’atoxyl, contribuant à démontrer l’étroitesse de la relation qui s’établit entre l’activité spécifique d’un composé d’une part, et la nature de la chaîne substituée et sa position sur le noyau aromatique d’autre part. Ainsi participe-t-il à la découverte de deux médicaments de choix : l’orsanine, active contre la maladie du sommeil, et le stovarsol, efficace contre la syphilis, les leishmanioses et l’amibiase. Il participe également à la recherche de médicaments antipaludiques, systématiquement entreprise par Fourneau à partir de 1930. Dans ce but, il synthétise de nombreux dérivés de la série des quinoléines, parmi lesquels la rhodoquine se montre d’une grande efficacité thérapeutique.
+Dans le second domaine, la principale contribution de Jacques Tréfouël aux progrès de la chimie thérapeutique est certainement la découverte, en 1935, en collaboration avec Thérèse Tréfouël, Federico Nitti et Daniel Bovet, des propriétés thérapeutiques des sulfamides. Les époux Tréfouël ayant synthétisé une longue série d’analogues du Prontosil, colorant antistreptococcique mis au point par Gerhard Domagk et commercialisé au début de la même année 1935, Nitti et Bovet montrent que seul le sulfanilamide, part incolore de tous ces composés azoïques, est actif contre les bactéries. Ils ouvrent ainsi la voie de la sulfamidothérapie.
+Encouragés par la remarquable efficacité des sulfamides, Fourneau et Tréfouël s’intéressent alors à l’activité antibactérienne de la sulfone-mère et ils aboutissent, en 1937, à la mise au point de l’acédapsone, active contre le streptocoque et contre les bacilles de Koch et de Hansen, ouvrant cette fois la voie à la sulfonethérapie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jacques_Tréfouël</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jacques_Tr%C3%A9fou%C3%ABl</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>L’Institut Pasteur</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La direction de l'Institut</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En décembre 1940, tout en conservant ses fonctions de chef de service dans le laboratoire de chimie thérapeutique, que Fourneau dirigera jusqu’à la Libération, Jacques Tréfouël est nommé à la direction de l'Institut Pasteur. Il y succède à Gaston Ramon. Le nouveau directeur conserve Noël Bernard et s’adjoint René Dujarric de la Rivière à la sous-direction de l’Institut.
 Pendant la guerre et sous la direction de Tréfouël, l’Institut acquiert un domaine en zone libre, à la Roche-Beaulieu, et y installe un laboratoire de production du vaccin contre le typhus exanthématique. Le directeur, soutenu par Louis Aublant, secrétaire général de la Santé, obtient la dispense du travail obligatoire pour le personnel de l’Institut. À partir de 1942, à la demande de Louis Pasteur Vallery-Radot, Gabriel Richet et Paul Milliez, Federico Nitti approvisionne un dépôt de médicaments destinés à la Résistance.
-En 1942, Jacques Tréfouël a soutenu sa thèse de doctorat en sciences physiques sur les arsenicaux pentavalents[8].
+En 1942, Jacques Tréfouël a soutenu sa thèse de doctorat en sciences physiques sur les arsenicaux pentavalents.
 À la Libération, Tréfouël préside le Comité militaire de la pénicilline et, avec Federico Nitti et Antoine Bonnefoi, il participe aux travaux du Centre militaire d'étude et de fabrication de la pénicilline.
 Il organise en 1955 à l'Institut Pasteur, avec Ludwik Rajchman, cofondateur du Centre international de l'enfance, et avec l'Institut d'hygiène de Varsovie, un symposium franco-polonais sur la bactériologie.
 Jacques Tréfouël est mort à Paris, le 11 juillet 1977.
@@ -563,31 +617,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Jacques_Tr%C3%A9fou%C3%ABl</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jacques_Tréfouël</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jacques_Tr%C3%A9fou%C3%ABl</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1926 : « Dérivés de l'acide phénylarsénique dans le traitement de la trypanosomiase : Relations entre l'action thérapeutique des acides arséniques aromatiques et leur constitution », avec Ernest Fourneau, Thérèse Tréfouël et Yvonne de Lestrange, dans Annales de l'Institut Pasteur, vol. 40, pp. 933-951.
 1927 : « Sur les isomères de l'acide para-oxy-3 aminophénylarsinique et son dérivé acétylé (Stovarsol) », avec E. Fourneau, Th. Tréfouël et Germaine Benoit, dans Bulletin de la Société chimique de France, vol. 41, pp. 499-514.
